--- a/pred_ohlcv/54_21/2019-10-30 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HYC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-1468023.309910826</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1508994.919410826</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1463285.267210826</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1774209.159240791</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2288383.042240791</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2234350.903240792</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2234330.903240792</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6303756.801391789</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4573504.407491788</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5788311.361196163</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6170280.079396163</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5334186.473396163</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5284987.414496164</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5213814.750296164</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4768261.972296164</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>5530530.326796165</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5122616.350196165</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5211551.948796165</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5211531.948796165</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5211521.948796165</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5233264.476096165</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5233264.476096165</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5223189.345296165</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5223199.345296165</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5192347.884296165</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4944664.098096165</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4839556.775496165</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HYC ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1809679.399310826</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1463285.267210826</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1463275.267210826</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2034424.988210826</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2026564.210810826</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1774209.159240791</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2098716.380440791</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2283176.952140791</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2288383.042240791</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2234350.903240792</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2234330.903240792</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2234320.903240792</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2245024.983640791</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6303756.801391789</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4573504.407491788</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>5279640.803196163</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6286114.870496163</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6122592.282896163</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5788311.361196163</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6170280.079396163</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5334186.473396163</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5284987.414496164</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4944664.098096165</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4839556.775496165</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
